--- a/USTC/USTC2016秋课程表.xlsx
+++ b/USTC/USTC2016秋课程表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\C\article\形势与政策课程论文\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\C\article\USTC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -94,15 +94,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>编译原理和技术3C224</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数学实验5104</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>古建筑MOOC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编译原理和技术3A201</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -538,7 +538,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -586,10 +586,10 @@
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -614,7 +614,7 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -631,7 +631,7 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
